--- a/myapp/files/9_MethodComparePercent/Scenario 344.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 344.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1862</v>
+        <v>9764</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83616515625154</v>
+        <v>1.94720761971618</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.92307692307692</v>
+        <v>1.58730158730159</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>13662</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.72457502054101</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14412</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.87414545425538</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15466</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.08434177043531</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7623</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.52023388827288</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.58730158730159</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1757</v>
+        <v>8982</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73262200834262</v>
+        <v>1.79125551416332</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.84615384615385</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.44927536231884</v>
       </c>
     </row>
     <row r="8">
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>6315</v>
+        <v>15235</v>
       </c>
       <c r="F8" t="n">
-        <v>6.22738075280799</v>
+        <v>3.03827407685128</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5.76923076923077</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.34782608695652</v>
+        <v>2.89855072463768</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5319</v>
+        <v>17382</v>
       </c>
       <c r="F9" t="n">
-        <v>5.24520003550051</v>
+        <v>3.46644437176429</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>3.84615384615385</v>
+        <v>4.36507936507936</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4461</v>
+        <v>24929</v>
       </c>
       <c r="F10" t="n">
-        <v>4.39910459830189</v>
+        <v>4.97152178942078</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>7.2463768115942</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.84615384615385</v>
+        <v>5.95238095238095</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1950</v>
+        <v>12104</v>
       </c>
       <c r="F11" t="n">
-        <v>1.9229441754514</v>
+        <v>2.41386737290502</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.92307692307692</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6118</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.22009588461937</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3534</v>
+        <v>23671</v>
       </c>
       <c r="F13" t="n">
-        <v>3.48496652104884</v>
+        <v>4.72064231527054</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.34782608695652</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>7.69230769230769</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>15750</v>
+        <v>51045</v>
       </c>
       <c r="F14" t="n">
-        <v>15.5314721863382</v>
+        <v>10.1797637186002</v>
       </c>
       <c r="G14" t="n">
         <v>15</v>
@@ -1049,10 +1049,10 @@
         <v>21.7391304347826</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>11.5384615384615</v>
+        <v>8.73015873015873</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>11629</v>
+        <v>47765</v>
       </c>
       <c r="F15" t="n">
-        <v>11.4676501622176</v>
+        <v>9.52564235515599</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,10 +1087,10 @@
         <v>14.4927536231884</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>11.5384615384615</v>
+        <v>8.73015873015873</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6932</v>
+        <v>12987</v>
       </c>
       <c r="F16" t="n">
-        <v>6.83582001242518</v>
+        <v>2.58996163019807</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>5.76923076923077</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4587</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.914772772597101</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>600</v>
+        <v>24517</v>
       </c>
       <c r="F18" t="n">
-        <v>0.591675130908123</v>
+        <v>4.88935776450035</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.92307692307692</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4483</v>
+        <v>46138</v>
       </c>
       <c r="F19" t="n">
-        <v>4.42079935310186</v>
+        <v>9.20117422761828</v>
       </c>
       <c r="G19" t="n">
         <v>13</v>
@@ -1239,10 +1239,10 @@
         <v>18.8405797101449</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>5.76923076923077</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>11947</v>
+        <v>61208</v>
       </c>
       <c r="F20" t="n">
-        <v>11.7812379815989</v>
+        <v>12.2065428090524</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>14.4927536231884</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>9.61538461538461</v>
+        <v>9.12698412698413</v>
       </c>
       <c r="K20" t="n">
         <v>11</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1380</v>
+        <v>14114</v>
       </c>
       <c r="F21" t="n">
-        <v>1.36085280108868</v>
+        <v>2.81471613525953</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92307692307692</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1896</v>
+        <v>3429</v>
       </c>
       <c r="F22" t="n">
-        <v>1.86969341366967</v>
+        <v>0.68383602294211</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92307692307692</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>4188</v>
+        <v>9828</v>
       </c>
       <c r="F23" t="n">
-        <v>4.1298924137387</v>
+        <v>1.95997096339313</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.84615384615385</v>
+        <v>2.77777777777778</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5200</v>
+        <v>15480</v>
       </c>
       <c r="F24" t="n">
-        <v>5.12785113453706</v>
+        <v>3.08713375186464</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>3.84615384615385</v>
+        <v>4.36507936507936</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6064</v>
+        <v>21714</v>
       </c>
       <c r="F25" t="n">
-        <v>5.97986332304476</v>
+        <v>4.33036319689851</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>7.69230769230769</v>
+        <v>5.55555555555556</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6140</v>
+        <v>19276</v>
       </c>
       <c r="F26" t="n">
-        <v>6.05480883962646</v>
+        <v>3.84415957370432</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>5.76923076923077</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="K26" t="n">
         <v>6</v>
